--- a/biology/Zoologie/Aselle_de_Bourgogne/Aselle_de_Bourgogne.xlsx
+++ b/biology/Zoologie/Aselle_de_Bourgogne/Aselle_de_Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Proasellus burgundus
-L'Aselle de Bourgogne (Proasellus burgundus) est une espèce de crustacés isopodes de la famille des Asellidae[1]. Elle est endémique à l'écosystème de la grotte de la Crétanne, à Bèze, source de la rivière du même nom, en Côte-d'Or (région Bourgogne-Franche-Comté)[2].
+L'Aselle de Bourgogne (Proasellus burgundus) est une espèce de crustacés isopodes de la famille des Asellidae. Elle est endémique à l'écosystème de la grotte de la Crétanne, à Bèze, source de la rivière du même nom, en Côte-d'Or (région Bourgogne-Franche-Comté).
 Étudiée en 1969 par Jean-Paul Henry (d) et Guy Magniez (d), elle est référencée dans Limnofauna Europaea de J. Illies (Gustav Fischer Verlag, 1978).
-Elle fait partie de la liste rouge des espèces menacées en France, parmi les crustacés d’eau douce[3].
+Elle fait partie de la liste rouge des espèces menacées en France, parmi les crustacés d’eau douce.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean-Paul Henry et Guy Magniez, 1970 : « Les Asellides de la rivière souterraine de Bèze (Côte d'Or) : description de Proasellus burgundus n. sp. (Crustacea Isopoda Asellota) ». Bulletin scientifique de Bourgogne n. 26, p. 203-204.</t>
         </is>
